--- a/Jogos_da_Semana_FlashScore_2024-09-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-28.xlsx
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
@@ -2218,7 +2218,7 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2233,10 +2233,10 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2254,7 +2254,7 @@
         <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2287,16 +2287,16 @@
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
@@ -2305,7 +2305,7 @@
         <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
@@ -2317,7 +2317,7 @@
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.75</v>
@@ -2329,10 +2329,10 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
         <v>10</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
         <v>1.08</v>
@@ -2415,16 +2415,16 @@
         <v>8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U11" t="n">
         <v>1.62</v>
@@ -2439,25 +2439,25 @@
         <v>9.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>10</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
         <v>10</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2472,10 +2472,10 @@
         <v>51</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="n">
         <v>51</v>
@@ -2487,13 +2487,13 @@
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR11" t="n">
         <v>26</v>
@@ -2502,10 +2502,10 @@
         <v>67</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>41</v>
@@ -2514,13 +2514,13 @@
         <v>301</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
         <v>126</v>
@@ -2532,7 +2532,7 @@
         <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -4023,40 +4023,40 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
         <v>3.25</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4071,10 +4071,10 @@
         <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
         <v>11</v>
@@ -4089,7 +4089,7 @@
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4101,31 +4101,31 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH20" t="n">
         <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
         <v>21</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
         <v>4.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4152,22 +4152,22 @@
         <v>126</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
         <v>67</v>
       </c>
       <c r="BC20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4599,10 +4599,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>1.36</v>
@@ -4611,22 +4611,22 @@
         <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
         <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
         <v>13</v>
@@ -4638,19 +4638,19 @@
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -4677,7 +4677,7 @@
         <v>19</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>51</v>
@@ -4689,7 +4689,7 @@
         <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4698,22 +4698,22 @@
         <v>151</v>
       </c>
       <c r="AX23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
         <v>34</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -5297,46 +5297,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="S27" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T27" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U27" t="n">
         <v>1.57</v>
@@ -5345,31 +5345,31 @@
         <v>2.25</v>
       </c>
       <c r="W27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="n">
         <v>34</v>
       </c>
-      <c r="Y27" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>41</v>
-      </c>
       <c r="AB27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
@@ -5378,43 +5378,43 @@
         <v>126</v>
       </c>
       <c r="AH27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI27" t="n">
         <v>10</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>9</v>
       </c>
       <c r="AJ27" t="n">
         <v>8.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU27" t="n">
         <v>7.5</v>
@@ -5423,25 +5423,25 @@
         <v>41</v>
       </c>
       <c r="AW27" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY27" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AZ27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA27" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BB27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD27" t="n">
         <v>151</v>
@@ -6207,40 +6207,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="J32" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L32" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M32" t="n">
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
         <v>1.13</v>
       </c>
       <c r="P32" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R32" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="S32" t="n">
         <v>1.23</v>
@@ -6249,67 +6249,67 @@
         <v>3.7</v>
       </c>
       <c r="U32" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V32" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="W32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X32" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z32" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB32" t="n">
         <v>17.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD32" t="n">
         <v>8.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG32" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AH32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
         <v>10.75</v>
       </c>
       <c r="AK32" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL32" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AM32" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO32" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP32" t="n">
         <v>14</v>
@@ -6327,10 +6327,10 @@
         <v>3.7</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AV32" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AW32" t="n">
         <v>400</v>
@@ -6339,7 +6339,7 @@
         <v>5.4</v>
       </c>
       <c r="AY32" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AZ32" t="n">
         <v>15.5</v>
@@ -6348,7 +6348,7 @@
         <v>50</v>
       </c>
       <c r="BB32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BC32" t="n">
         <v>120</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L35" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -6777,16 +6777,16 @@
         <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S35" t="n">
         <v>1.33</v>
@@ -6801,19 +6801,19 @@
         <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB35" t="n">
         <v>29</v>
@@ -6822,10 +6822,10 @@
         <v>13</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
         <v>41</v>
@@ -6834,28 +6834,28 @@
         <v>151</v>
       </c>
       <c r="AH35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM35" t="n">
         <v>21</v>
       </c>
-      <c r="AL35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>23</v>
-      </c>
       <c r="AN35" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP35" t="n">
         <v>23</v>
@@ -6882,22 +6882,22 @@
         <v>451</v>
       </c>
       <c r="AX35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ35" t="n">
         <v>19</v>
       </c>
       <c r="BA35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB35" t="n">
         <v>51</v>
       </c>
       <c r="BC35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD35" t="n">
         <v>151</v>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H38" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
         <v>2.2</v>
@@ -7314,7 +7314,7 @@
         <v>2.4</v>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -7323,16 +7323,16 @@
         <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="n">
         <v>1.3</v>
@@ -7347,7 +7347,7 @@
         <v>2.1</v>
       </c>
       <c r="W38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X38" t="n">
         <v>9</v>
@@ -7359,7 +7359,7 @@
         <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB38" t="n">
         <v>21</v>
@@ -7401,13 +7401,13 @@
         <v>3.75</v>
       </c>
       <c r="AO38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP38" t="n">
         <v>17</v>
       </c>
       <c r="AQ38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR38" t="n">
         <v>41</v>
@@ -7434,7 +7434,7 @@
         <v>23</v>
       </c>
       <c r="AZ38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA38" t="n">
         <v>81</v>
@@ -7663,112 +7663,112 @@
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V40" t="n">
         <v>1.67</v>
       </c>
-      <c r="H40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>6</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>7</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W40" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X40" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z40" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA40" t="n">
         <v>17</v>
       </c>
       <c r="AB40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD40" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD40" t="n">
-        <v>7</v>
-      </c>
       <c r="AE40" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="n">
         <v>201</v>
       </c>
       <c r="AH40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ40" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK40" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM40" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ40" t="n">
         <v>34</v>
@@ -7777,37 +7777,37 @@
         <v>67</v>
       </c>
       <c r="AS40" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV40" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW40" t="n">
         <v>81</v>
       </c>
       <c r="AX40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY40" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ40" t="n">
         <v>41</v>
       </c>
       <c r="BA40" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB40" t="n">
         <v>151</v>
       </c>
-      <c r="BB40" t="n">
-        <v>201</v>
-      </c>
       <c r="BC40" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BD40" t="n">
         <v>81</v>
@@ -7845,22 +7845,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H41" t="n">
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
         <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -7902,7 +7902,7 @@
         <v>9.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA41" t="n">
         <v>15</v>
@@ -7914,7 +7914,7 @@
         <v>7</v>
       </c>
       <c r="AD41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE41" t="n">
         <v>29</v>
@@ -7926,28 +7926,28 @@
         <v>201</v>
       </c>
       <c r="AH41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI41" t="n">
         <v>41</v>
       </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL41" t="n">
         <v>81</v>
       </c>
       <c r="AM41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN41" t="n">
         <v>3.1</v>
       </c>
       <c r="AO41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP41" t="n">
         <v>26</v>
@@ -7959,13 +7959,13 @@
         <v>51</v>
       </c>
       <c r="AS41" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT41" t="n">
         <v>2.5</v>
       </c>
       <c r="AU41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV41" t="n">
         <v>101</v>
@@ -7977,16 +7977,16 @@
         <v>9</v>
       </c>
       <c r="AY41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ41" t="n">
         <v>51</v>
       </c>
       <c r="BA41" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB41" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC41" t="n">
         <v>501</v>
@@ -8391,16 +8391,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H44" t="n">
         <v>4.75</v>
       </c>
       <c r="I44" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K44" t="n">
         <v>2.4</v>
@@ -8409,10 +8409,10 @@
         <v>6.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
         <v>1.22</v>
@@ -8439,7 +8439,7 @@
         <v>1.8</v>
       </c>
       <c r="W44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X44" t="n">
         <v>7</v>
@@ -8472,22 +8472,22 @@
         <v>351</v>
       </c>
       <c r="AH44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI44" t="n">
         <v>34</v>
       </c>
       <c r="AJ44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN44" t="n">
         <v>3.4</v>
@@ -8499,7 +8499,7 @@
         <v>17</v>
       </c>
       <c r="AQ44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR44" t="n">
         <v>41</v>
@@ -8511,7 +8511,7 @@
         <v>3.25</v>
       </c>
       <c r="AU44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV44" t="n">
         <v>51</v>
@@ -8526,13 +8526,13 @@
         <v>34</v>
       </c>
       <c r="AZ44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA44" t="n">
         <v>126</v>
       </c>
       <c r="BB44" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC44" t="n">
         <v>251</v>
@@ -8573,7 +8573,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H45" t="n">
         <v>4.75</v>
@@ -8582,7 +8582,7 @@
         <v>8.5</v>
       </c>
       <c r="J45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K45" t="n">
         <v>2.5</v>
@@ -8591,10 +8591,10 @@
         <v>7.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O45" t="n">
         <v>1.2</v>
@@ -8615,34 +8615,34 @@
         <v>3.4</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W45" t="n">
         <v>7.5</v>
       </c>
       <c r="X45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB45" t="n">
         <v>26</v>
       </c>
       <c r="AC45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE45" t="n">
         <v>21</v>
@@ -9665,16 +9665,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>2.88</v>
       </c>
       <c r="I51" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
         <v>1.83</v>
@@ -9746,10 +9746,10 @@
         <v>201</v>
       </c>
       <c r="AH51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ51" t="n">
         <v>15</v>
@@ -9794,7 +9794,7 @@
         <v>126</v>
       </c>
       <c r="AX51" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY51" t="n">
         <v>23</v>
@@ -9847,16 +9847,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K52" t="n">
         <v>1.95</v>
@@ -9865,10 +9865,10 @@
         <v>4.75</v>
       </c>
       <c r="M52" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O52" t="n">
         <v>1.5</v>
@@ -9898,7 +9898,7 @@
         <v>5.5</v>
       </c>
       <c r="X52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y52" t="n">
         <v>9.5</v>
@@ -9913,16 +9913,16 @@
         <v>41</v>
       </c>
       <c r="AC52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD52" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD52" t="n">
-        <v>6</v>
-      </c>
       <c r="AE52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG52" t="n">
         <v>201</v>
@@ -9967,7 +9967,7 @@
         <v>2.38</v>
       </c>
       <c r="AU52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV52" t="n">
         <v>67</v>
@@ -10032,7 +10032,7 @@
         <v>1.5</v>
       </c>
       <c r="H53" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
         <v>7.5</v>
@@ -10047,22 +10047,22 @@
         <v>7</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R53" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S53" t="n">
         <v>1.44</v>
@@ -10113,7 +10113,7 @@
         <v>15</v>
       </c>
       <c r="AI53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ53" t="n">
         <v>23</v>
@@ -10220,19 +10220,19 @@
         <v>13</v>
       </c>
       <c r="J54" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K54" t="n">
         <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.33</v>
@@ -10241,22 +10241,22 @@
         <v>3.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R54" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V54" t="n">
         <v>1.44</v>
-      </c>
-      <c r="T54" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U54" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.4</v>
       </c>
       <c r="W54" t="n">
         <v>5</v>
@@ -10265,10 +10265,10 @@
         <v>5</v>
       </c>
       <c r="Y54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA54" t="n">
         <v>15</v>
@@ -10277,16 +10277,16 @@
         <v>41</v>
       </c>
       <c r="AC54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD54" t="n">
         <v>9.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG54" t="n">
         <v>201</v>
@@ -10301,13 +10301,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL54" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM54" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN54" t="n">
         <v>3</v>
@@ -10316,10 +10316,10 @@
         <v>6</v>
       </c>
       <c r="AP54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR54" t="n">
         <v>51</v>
@@ -10328,7 +10328,7 @@
         <v>251</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU54" t="n">
         <v>12</v>
@@ -10346,7 +10346,7 @@
         <v>51</v>
       </c>
       <c r="AZ54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA54" t="n">
         <v>351</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H56" t="n">
         <v>6.5</v>
       </c>
       <c r="I56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J56" t="n">
         <v>1.67</v>
@@ -10590,7 +10590,7 @@
         <v>2.75</v>
       </c>
       <c r="L56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.02</v>
@@ -10638,7 +10638,7 @@
         <v>11</v>
       </c>
       <c r="AB56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC56" t="n">
         <v>19</v>
@@ -10653,22 +10653,22 @@
         <v>67</v>
       </c>
       <c r="AG56" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>23</v>
       </c>
-      <c r="AI56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>26</v>
-      </c>
       <c r="AK56" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM56" t="n">
         <v>51</v>
@@ -12577,22 +12577,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I67" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J67" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="K67" t="n">
         <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M67" t="n">
         <v>1.08</v>
@@ -12619,76 +12619,76 @@
         <v>2.38</v>
       </c>
       <c r="U67" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V67" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W67" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X67" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z67" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA67" t="n">
         <v>41</v>
       </c>
       <c r="AB67" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC67" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD67" t="n">
         <v>6.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF67" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG67" t="n">
         <v>1250</v>
       </c>
       <c r="AH67" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ67" t="n">
         <v>9.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL67" t="n">
         <v>19</v>
       </c>
       <c r="AM67" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN67" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO67" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP67" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ67" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR67" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS67" t="n">
         <v>351</v>
@@ -12697,31 +12697,31 @@
         <v>2.38</v>
       </c>
       <c r="AU67" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV67" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW67" t="n">
         <v>51</v>
       </c>
       <c r="AX67" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ67" t="n">
         <v>26</v>
       </c>
       <c r="BA67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB67" t="n">
         <v>67</v>
       </c>
       <c r="BC67" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD67" t="n">
         <v>51</v>
@@ -16581,7 +16581,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>3.4</v>
@@ -16605,31 +16605,31 @@
         <v>13</v>
       </c>
       <c r="O89" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P89" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V89" t="n">
         <v>2.1</v>
       </c>
-      <c r="S89" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T89" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U89" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V89" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W89" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X89" t="n">
         <v>12</v>
@@ -16647,13 +16647,13 @@
         <v>23</v>
       </c>
       <c r="AC89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD89" t="n">
         <v>6.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF89" t="n">
         <v>41</v>
@@ -16662,7 +16662,7 @@
         <v>151</v>
       </c>
       <c r="AH89" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI89" t="n">
         <v>17</v>
@@ -16680,13 +16680,13 @@
         <v>29</v>
       </c>
       <c r="AN89" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO89" t="n">
         <v>12</v>
       </c>
       <c r="AP89" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ89" t="n">
         <v>41</v>
@@ -16698,25 +16698,25 @@
         <v>126</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU89" t="n">
         <v>7.5</v>
       </c>
       <c r="AV89" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW89" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX89" t="n">
         <v>5</v>
       </c>
       <c r="AY89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA89" t="n">
         <v>51</v>
@@ -16725,7 +16725,7 @@
         <v>67</v>
       </c>
       <c r="BC89" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD89" t="n">
         <v>126</v>
@@ -18401,22 +18401,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>3.8</v>
       </c>
       <c r="I99" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="J99" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
         <v>2.4</v>
       </c>
       <c r="L99" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M99" t="n">
         <v>1.03</v>
@@ -18449,31 +18449,31 @@
         <v>2.5</v>
       </c>
       <c r="W99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X99" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA99" t="n">
         <v>17</v>
       </c>
-      <c r="Y99" t="n">
+      <c r="AB99" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE99" t="n">
         <v>11</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>12</v>
       </c>
       <c r="AF99" t="n">
         <v>34</v>
@@ -18482,28 +18482,28 @@
         <v>101</v>
       </c>
       <c r="AH99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI99" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ99" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK99" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL99" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AM99" t="n">
         <v>21</v>
       </c>
       <c r="AN99" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO99" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP99" t="n">
         <v>19</v>
@@ -18530,19 +18530,19 @@
         <v>301</v>
       </c>
       <c r="AX99" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY99" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB99" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC99" t="n">
         <v>101</v>
@@ -20069,10 +20069,10 @@
         <v>4.33</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R108" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S108" t="n">
         <v>1.3</v>
@@ -24619,10 +24619,10 @@
         <v>3.75</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R133" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S133" t="n">
         <v>1.36</v>
@@ -24733,7 +24733,7 @@
         <v>51</v>
       </c>
       <c r="BC133" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD133" t="n">
         <v>126</v>
@@ -24962,13 +24962,13 @@
         <v>5.3</v>
       </c>
       <c r="J135" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K135" t="n">
         <v>2.15</v>
       </c>
       <c r="L135" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M135" t="n">
         <v>1.01</v>
@@ -24989,7 +24989,7 @@
         <v>1.7</v>
       </c>
       <c r="S135" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T135" t="n">
         <v>2.57</v>
@@ -25004,7 +25004,7 @@
         <v>5.9</v>
       </c>
       <c r="X135" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y135" t="n">
         <v>8.25</v>
@@ -25013,19 +25013,19 @@
         <v>11.5</v>
       </c>
       <c r="AA135" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB135" t="n">
         <v>32</v>
       </c>
       <c r="AC135" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD135" t="n">
         <v>7.1</v>
       </c>
       <c r="AE135" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF135" t="n">
         <v>100</v>
@@ -25034,7 +25034,7 @@
         <v>900</v>
       </c>
       <c r="AH135" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI135" t="n">
         <v>30</v>
@@ -25046,37 +25046,37 @@
         <v>110</v>
       </c>
       <c r="AL135" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM135" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN135" t="n">
         <v>3.35</v>
       </c>
       <c r="AO135" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AP135" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ135" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR135" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS135" t="n">
         <v>250</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU135" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV135" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW135" t="n">
         <v>51</v>
@@ -25085,10 +25085,10 @@
         <v>6.8</v>
       </c>
       <c r="AY135" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ135" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA135" t="n">
         <v>200</v>
@@ -25505,7 +25505,7 @@
         <v>2.9</v>
       </c>
       <c r="I138" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J138" t="n">
         <v>3.6</v>
@@ -25517,10 +25517,10 @@
         <v>3.5</v>
       </c>
       <c r="M138" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N138" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O138" t="n">
         <v>1.5</v>
@@ -25583,7 +25583,7 @@
         <v>6.5</v>
       </c>
       <c r="AI138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ138" t="n">
         <v>11</v>
@@ -25604,7 +25604,7 @@
         <v>17</v>
       </c>
       <c r="AP138" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ138" t="n">
         <v>51</v>
@@ -25640,7 +25640,7 @@
         <v>51</v>
       </c>
       <c r="BB138" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC138" t="n">
         <v>301</v>
@@ -26251,10 +26251,10 @@
         <v>13</v>
       </c>
       <c r="O142" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P142" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q142" t="n">
         <v>1.7</v>
@@ -27683,13 +27683,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H150" t="n">
         <v>3.7</v>
       </c>
       <c r="I150" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J150" t="n">
         <v>2.2</v>
@@ -27698,13 +27698,13 @@
         <v>2.1</v>
       </c>
       <c r="L150" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M150" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N150" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O150" t="n">
         <v>1.36</v>
@@ -27785,7 +27785,7 @@
         <v>3.4</v>
       </c>
       <c r="AO150" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP150" t="n">
         <v>21</v>
@@ -27812,7 +27812,7 @@
         <v>51</v>
       </c>
       <c r="AX150" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY150" t="n">
         <v>34</v>
@@ -27868,7 +27868,7 @@
         <v>2.88</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I151" t="n">
         <v>2.45</v>
@@ -27886,7 +27886,7 @@
         <v>1.08</v>
       </c>
       <c r="N151" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O151" t="n">
         <v>1.4</v>
@@ -27946,7 +27946,7 @@
         <v>351</v>
       </c>
       <c r="AH151" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI151" t="n">
         <v>11</v>
@@ -28047,28 +28047,28 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H152" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I152" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J152" t="n">
         <v>2.1</v>
       </c>
       <c r="K152" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L152" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M152" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N152" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O152" t="n">
         <v>1.3</v>
@@ -28077,10 +28077,10 @@
         <v>3.4</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R152" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S152" t="n">
         <v>1.4</v>
@@ -28089,10 +28089,10 @@
         <v>2.75</v>
       </c>
       <c r="U152" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V152" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W152" t="n">
         <v>6</v>
@@ -28104,7 +28104,7 @@
         <v>8.5</v>
       </c>
       <c r="Z152" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA152" t="n">
         <v>13</v>
@@ -28116,10 +28116,10 @@
         <v>9.5</v>
       </c>
       <c r="AD152" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE152" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF152" t="n">
         <v>67</v>
@@ -28128,13 +28128,13 @@
         <v>351</v>
       </c>
       <c r="AH152" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI152" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ152" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK152" t="n">
         <v>67</v>
@@ -28149,7 +28149,7 @@
         <v>3.4</v>
       </c>
       <c r="AO152" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP152" t="n">
         <v>21</v>
@@ -28167,7 +28167,7 @@
         <v>2.75</v>
       </c>
       <c r="AU152" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV152" t="n">
         <v>67</v>
@@ -28185,7 +28185,7 @@
         <v>41</v>
       </c>
       <c r="BA152" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB152" t="n">
         <v>151</v>
@@ -28250,7 +28250,7 @@
         <v>1.07</v>
       </c>
       <c r="N153" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O153" t="n">
         <v>1.33</v>
@@ -28307,7 +28307,7 @@
         <v>51</v>
       </c>
       <c r="AG153" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH153" t="n">
         <v>7.5</v>
@@ -28364,7 +28364,7 @@
         <v>13</v>
       </c>
       <c r="AZ153" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA153" t="n">
         <v>41</v>
@@ -28411,16 +28411,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H154" t="n">
         <v>3.3</v>
       </c>
       <c r="I154" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J154" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K154" t="n">
         <v>2</v>
@@ -28429,10 +28429,10 @@
         <v>6.5</v>
       </c>
       <c r="M154" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N154" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O154" t="n">
         <v>1.5</v>
@@ -28459,7 +28459,7 @@
         <v>1.5</v>
       </c>
       <c r="W154" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X154" t="n">
         <v>6.5</v>
@@ -28513,7 +28513,7 @@
         <v>3.4</v>
       </c>
       <c r="AO154" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP154" t="n">
         <v>26</v>
@@ -28525,7 +28525,7 @@
         <v>67</v>
       </c>
       <c r="AS154" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT154" t="n">
         <v>2.25</v>
@@ -28558,7 +28558,7 @@
         <v>351</v>
       </c>
       <c r="BD154" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155">
@@ -28957,22 +28957,22 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="H157" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I157" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J157" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K157" t="n">
         <v>2.2</v>
       </c>
       <c r="L157" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M157" t="n">
         <v>1.05</v>
@@ -28981,16 +28981,16 @@
         <v>11</v>
       </c>
       <c r="O157" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P157" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R157" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S157" t="n">
         <v>1.4</v>
@@ -28999,28 +28999,28 @@
         <v>2.75</v>
       </c>
       <c r="U157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V157" t="n">
         <v>1.95</v>
       </c>
-      <c r="V157" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W157" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X157" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y157" t="n">
         <v>8.5</v>
       </c>
       <c r="Z157" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB157" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC157" t="n">
         <v>10</v>
@@ -29029,22 +29029,22 @@
         <v>7</v>
       </c>
       <c r="AE157" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF157" t="n">
         <v>51</v>
       </c>
       <c r="AG157" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI157" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ157" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK157" t="n">
         <v>51</v>
@@ -29056,10 +29056,10 @@
         <v>41</v>
       </c>
       <c r="AN157" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO157" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP157" t="n">
         <v>21</v>
@@ -29077,7 +29077,7 @@
         <v>2.75</v>
       </c>
       <c r="AU157" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV157" t="n">
         <v>51</v>
@@ -29086,22 +29086,22 @@
         <v>81</v>
       </c>
       <c r="AX157" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY157" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ157" t="n">
         <v>29</v>
       </c>
-      <c r="AZ157" t="n">
-        <v>34</v>
-      </c>
       <c r="BA157" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB157" t="n">
         <v>101</v>
       </c>
-      <c r="BB157" t="n">
-        <v>126</v>
-      </c>
       <c r="BC157" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD157" t="n">
         <v>81</v>
@@ -29867,13 +29867,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="H162" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I162" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J162" t="n">
         <v>1.57</v>
@@ -29882,7 +29882,7 @@
         <v>2.88</v>
       </c>
       <c r="L162" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M162" t="n">
         <v>1.02</v>
@@ -29891,10 +29891,10 @@
         <v>21</v>
       </c>
       <c r="O162" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P162" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q162" t="n">
         <v>1.44</v>
@@ -29903,10 +29903,10 @@
         <v>2.7</v>
       </c>
       <c r="S162" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T162" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U162" t="n">
         <v>2.1</v>
@@ -29921,7 +29921,7 @@
         <v>6.5</v>
       </c>
       <c r="Y162" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z162" t="n">
         <v>7</v>
@@ -29933,7 +29933,7 @@
         <v>29</v>
       </c>
       <c r="AC162" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD162" t="n">
         <v>15</v>
@@ -29948,16 +29948,16 @@
         <v>501</v>
       </c>
       <c r="AH162" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ162" t="n">
         <v>29</v>
       </c>
-      <c r="AI162" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ162" t="n">
-        <v>34</v>
-      </c>
       <c r="AK162" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL162" t="n">
         <v>81</v>
@@ -29966,7 +29966,7 @@
         <v>67</v>
       </c>
       <c r="AN162" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO162" t="n">
         <v>5</v>
@@ -29981,16 +29981,16 @@
         <v>34</v>
       </c>
       <c r="AS162" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT162" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU162" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV162" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW162" t="n">
         <v>126</v>
@@ -30002,7 +30002,7 @@
         <v>51</v>
       </c>
       <c r="AZ162" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA162" t="n">
         <v>301</v>
@@ -30011,7 +30011,7 @@
         <v>251</v>
       </c>
       <c r="BC162" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD162" t="n">
         <v>126</v>
@@ -30595,13 +30595,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H166" t="n">
         <v>2.9</v>
       </c>
       <c r="I166" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J166" t="n">
         <v>3.4</v>
@@ -30610,13 +30610,13 @@
         <v>2.05</v>
       </c>
       <c r="L166" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M166" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O166" t="n">
         <v>1.36</v>
@@ -30679,13 +30679,13 @@
         <v>8</v>
       </c>
       <c r="AI166" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ166" t="n">
         <v>11</v>
       </c>
       <c r="AK166" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL166" t="n">
         <v>23</v>
@@ -30724,7 +30724,7 @@
         <v>81</v>
       </c>
       <c r="AX166" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY166" t="n">
         <v>15</v>
@@ -31141,40 +31141,40 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>3.4</v>
       </c>
       <c r="I169" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J169" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K169" t="n">
         <v>2.1</v>
       </c>
       <c r="L169" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M169" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N169" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O169" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P169" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q169" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R169" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S169" t="n">
         <v>1.44</v>
@@ -31204,7 +31204,7 @@
         <v>17</v>
       </c>
       <c r="AB169" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC169" t="n">
         <v>8.5</v>
@@ -31216,13 +31216,13 @@
         <v>17</v>
       </c>
       <c r="AF169" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG169" t="n">
         <v>351</v>
       </c>
       <c r="AH169" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI169" t="n">
         <v>21</v>
@@ -31231,7 +31231,7 @@
         <v>15</v>
       </c>
       <c r="AK169" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL169" t="n">
         <v>41</v>
@@ -31255,7 +31255,7 @@
         <v>51</v>
       </c>
       <c r="AS169" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT169" t="n">
         <v>2.63</v>
@@ -31273,7 +31273,7 @@
         <v>6</v>
       </c>
       <c r="AY169" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ169" t="n">
         <v>34</v>
@@ -31687,28 +31687,28 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H172" t="n">
         <v>7</v>
       </c>
       <c r="I172" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J172" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K172" t="n">
         <v>3</v>
       </c>
       <c r="L172" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M172" t="n">
+        <v>23</v>
+      </c>
+      <c r="N172" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N172" t="n">
-        <v>15</v>
       </c>
       <c r="O172" t="n">
         <v>1.08</v>
@@ -31741,10 +31741,10 @@
         <v>51</v>
       </c>
       <c r="Y172" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z172" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AA172" t="n">
         <v>67</v>
@@ -31753,7 +31753,7 @@
         <v>51</v>
       </c>
       <c r="AC172" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD172" t="n">
         <v>15</v>
@@ -31783,7 +31783,7 @@
         <v>11</v>
       </c>
       <c r="AM172" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN172" t="n">
         <v>12</v>
@@ -31807,7 +31807,7 @@
         <v>4.33</v>
       </c>
       <c r="AU172" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV172" t="n">
         <v>51</v>
@@ -31816,10 +31816,10 @@
         <v>81</v>
       </c>
       <c r="AX172" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AY172" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ172" t="n">
         <v>15</v>
@@ -33337,34 +33337,34 @@
         <v>1.93</v>
       </c>
       <c r="K181" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L181" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M181" t="n">
         <v>1.06</v>
       </c>
       <c r="N181" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O181" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P181" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R181" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S181" t="n">
         <v>1.42</v>
       </c>
       <c r="T181" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U181" t="n">
         <v>2</v>
@@ -33391,43 +33391,43 @@
         <v>28</v>
       </c>
       <c r="AC181" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD181" t="n">
         <v>7.9</v>
       </c>
       <c r="AE181" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF181" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG181" t="n">
         <v>900</v>
       </c>
       <c r="AH181" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI181" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ181" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK181" t="n">
         <v>250</v>
       </c>
       <c r="AL181" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM181" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN181" t="n">
         <v>3.15</v>
       </c>
       <c r="AO181" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AP181" t="n">
         <v>17.5</v>
@@ -33442,10 +33442,10 @@
         <v>250</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU181" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV181" t="n">
         <v>90</v>
@@ -33460,13 +33460,13 @@
         <v>55</v>
       </c>
       <c r="AZ181" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA181" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BB181" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC181" t="n">
         <v>500</v>
@@ -34053,37 +34053,37 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I185" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="J185" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="K185" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L185" t="n">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="M185" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N185" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="O185" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P185" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Q185" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R185" t="n">
         <v>1.65</v>
@@ -34092,88 +34092,88 @@
         <v>1.47</v>
       </c>
       <c r="T185" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="U185" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V185" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W185" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X185" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC185" t="n">
         <v>6.5</v>
       </c>
-      <c r="X185" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y185" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z185" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA185" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB185" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC185" t="n">
+      <c r="AD185" t="n">
         <v>6.3</v>
       </c>
-      <c r="AD185" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AE185" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF185" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG185" t="n">
         <v>900</v>
       </c>
       <c r="AH185" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI185" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ185" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK185" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR185" t="n">
         <v>65</v>
-      </c>
-      <c r="AL185" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM185" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN185" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO185" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP185" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ185" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR185" t="n">
-        <v>75</v>
       </c>
       <c r="AS185" t="n">
         <v>250</v>
       </c>
       <c r="AT185" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="AU185" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AV185" t="n">
         <v>65</v>
@@ -34182,22 +34182,22 @@
         <v>51</v>
       </c>
       <c r="AX185" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AY185" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ185" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BA185" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB185" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC185" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BD185" t="n">
         <v>51</v>
@@ -35891,16 +35891,16 @@
         <v>4</v>
       </c>
       <c r="M195" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N195" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O195" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P195" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q195" t="n">
         <v>3.4</v>
@@ -35909,10 +35909,10 @@
         <v>1.33</v>
       </c>
       <c r="S195" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T195" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U195" t="n">
         <v>2.5</v>
@@ -37329,16 +37329,16 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I203" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J203" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K203" t="n">
         <v>2.5</v>
@@ -37353,31 +37353,31 @@
         <v>17</v>
       </c>
       <c r="O203" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P203" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q203" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R203" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S203" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T203" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U203" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V203" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W203" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X203" t="n">
         <v>9</v>
@@ -37386,10 +37386,10 @@
         <v>8.5</v>
       </c>
       <c r="Z203" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA203" t="n">
         <v>12</v>
-      </c>
-      <c r="AA203" t="n">
-        <v>11</v>
       </c>
       <c r="AB203" t="n">
         <v>21</v>
@@ -37398,7 +37398,7 @@
         <v>17</v>
       </c>
       <c r="AD203" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE203" t="n">
         <v>13</v>
@@ -37407,13 +37407,13 @@
         <v>41</v>
       </c>
       <c r="AG203" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH203" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI203" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ203" t="n">
         <v>17</v>
@@ -37425,19 +37425,19 @@
         <v>41</v>
       </c>
       <c r="AM203" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN203" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO203" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP203" t="n">
         <v>15</v>
       </c>
       <c r="AQ203" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR203" t="n">
         <v>41</v>
@@ -37446,7 +37446,7 @@
         <v>81</v>
       </c>
       <c r="AT203" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU203" t="n">
         <v>7.5</v>
@@ -37461,10 +37461,10 @@
         <v>7</v>
       </c>
       <c r="AY203" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ203" t="n">
         <v>26</v>
-      </c>
-      <c r="AZ203" t="n">
-        <v>29</v>
       </c>
       <c r="BA203" t="n">
         <v>81</v>
@@ -39558,7 +39558,7 @@
         <v>2</v>
       </c>
       <c r="V215" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W215" t="n">
         <v>7</v>
@@ -39695,13 +39695,13 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H216" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I216" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J216" t="n">
         <v>2.3</v>
@@ -39737,7 +39737,7 @@
         <v>3.75</v>
       </c>
       <c r="U216" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V216" t="n">
         <v>2.5</v>
@@ -39752,7 +39752,7 @@
         <v>8.5</v>
       </c>
       <c r="Z216" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA216" t="n">
         <v>13</v>
@@ -39788,10 +39788,10 @@
         <v>41</v>
       </c>
       <c r="AL216" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM216" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN216" t="n">
         <v>4.33</v>
@@ -39824,10 +39824,10 @@
         <v>301</v>
       </c>
       <c r="AX216" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY216" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ216" t="n">
         <v>21</v>
@@ -39839,7 +39839,7 @@
         <v>67</v>
       </c>
       <c r="BC216" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD216" t="n">
         <v>151</v>
@@ -39913,22 +39913,22 @@
         <v>2.4</v>
       </c>
       <c r="S217" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T217" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U217" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V217" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W217" t="n">
         <v>13</v>
       </c>
       <c r="X217" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y217" t="n">
         <v>10</v>
@@ -39952,7 +39952,7 @@
         <v>11</v>
       </c>
       <c r="AF217" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG217" t="n">
         <v>101</v>
@@ -39994,7 +39994,7 @@
         <v>101</v>
       </c>
       <c r="AT217" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU217" t="n">
         <v>7</v>
@@ -40012,7 +40012,7 @@
         <v>13</v>
       </c>
       <c r="AZ217" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA217" t="n">
         <v>41</v>
@@ -40024,7 +40024,7 @@
         <v>101</v>
       </c>
       <c r="BD217" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="218">
@@ -40241,13 +40241,13 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H219" t="n">
         <v>4.5</v>
       </c>
       <c r="I219" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J219" t="n">
         <v>1.95</v>
@@ -40295,10 +40295,10 @@
         <v>10</v>
       </c>
       <c r="Y219" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z219" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA219" t="n">
         <v>11</v>
@@ -40310,7 +40310,7 @@
         <v>21</v>
       </c>
       <c r="AD219" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE219" t="n">
         <v>13</v>
@@ -40325,13 +40325,13 @@
         <v>23</v>
       </c>
       <c r="AI219" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ219" t="n">
         <v>19</v>
       </c>
       <c r="AK219" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL219" t="n">
         <v>41</v>
@@ -40343,7 +40343,7 @@
         <v>4</v>
       </c>
       <c r="AO219" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP219" t="n">
         <v>13</v>
@@ -40376,7 +40376,7 @@
         <v>26</v>
       </c>
       <c r="AZ219" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA219" t="n">
         <v>81</v>
@@ -40441,10 +40441,10 @@
         <v>3.6</v>
       </c>
       <c r="M220" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N220" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O220" t="n">
         <v>1.22</v>
@@ -40453,10 +40453,10 @@
         <v>4</v>
       </c>
       <c r="Q220" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R220" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S220" t="n">
         <v>1.33</v>
@@ -40802,7 +40802,7 @@
         <v>2.63</v>
       </c>
       <c r="L222" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M222" t="n">
         <v>1.02</v>
@@ -40811,16 +40811,16 @@
         <v>21</v>
       </c>
       <c r="O222" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P222" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q222" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R222" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S222" t="n">
         <v>1.22</v>
@@ -40835,13 +40835,13 @@
         <v>2.63</v>
       </c>
       <c r="W222" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X222" t="n">
         <v>11</v>
       </c>
       <c r="Y222" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z222" t="n">
         <v>15</v>
@@ -40853,7 +40853,7 @@
         <v>17</v>
       </c>
       <c r="AC222" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD222" t="n">
         <v>9</v>
@@ -40871,16 +40871,16 @@
         <v>21</v>
       </c>
       <c r="AI222" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ222" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK222" t="n">
         <v>51</v>
       </c>
       <c r="AL222" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM222" t="n">
         <v>29</v>
@@ -40987,10 +40987,10 @@
         <v>3.4</v>
       </c>
       <c r="M223" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N223" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O223" t="n">
         <v>1.14</v>
@@ -41151,28 +41151,28 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H224" t="n">
         <v>3.6</v>
       </c>
       <c r="I224" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J224" t="n">
         <v>2.75</v>
       </c>
       <c r="K224" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L224" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M224" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N224" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O224" t="n">
         <v>1.25</v>
@@ -41181,10 +41181,10 @@
         <v>3.75</v>
       </c>
       <c r="Q224" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R224" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S224" t="n">
         <v>1.36</v>
@@ -41193,16 +41193,16 @@
         <v>3</v>
       </c>
       <c r="U224" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V224" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W224" t="n">
         <v>8.5</v>
       </c>
       <c r="X224" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y224" t="n">
         <v>9</v>
@@ -41211,7 +41211,7 @@
         <v>19</v>
       </c>
       <c r="AA224" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB224" t="n">
         <v>23</v>
@@ -41229,25 +41229,25 @@
         <v>41</v>
       </c>
       <c r="AG224" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH224" t="n">
         <v>11</v>
       </c>
       <c r="AI224" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ224" t="n">
         <v>12</v>
       </c>
       <c r="AK224" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL224" t="n">
         <v>26</v>
       </c>
       <c r="AM224" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN224" t="n">
         <v>4.33</v>
@@ -41286,13 +41286,13 @@
         <v>19</v>
       </c>
       <c r="AZ224" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA224" t="n">
         <v>51</v>
       </c>
       <c r="BB224" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC224" t="n">
         <v>151</v>
@@ -41545,16 +41545,16 @@
         <v>7</v>
       </c>
       <c r="Q226" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R226" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S226" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T226" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U226" t="n">
         <v>1.44</v>
@@ -41575,7 +41575,7 @@
         <v>15</v>
       </c>
       <c r="AA226" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB226" t="n">
         <v>17</v>
@@ -41632,16 +41632,16 @@
         <v>67</v>
       </c>
       <c r="AT226" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU226" t="n">
         <v>7</v>
       </c>
       <c r="AV226" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW226" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AX226" t="n">
         <v>7</v>
@@ -41656,7 +41656,7 @@
         <v>51</v>
       </c>
       <c r="BB226" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC226" t="n">
         <v>101</v>
@@ -42243,22 +42243,22 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H230" t="n">
         <v>3.5</v>
       </c>
       <c r="I230" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="J230" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K230" t="n">
         <v>2.22</v>
       </c>
       <c r="L230" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="M230" t="n">
         <v>1.05</v>
@@ -42273,10 +42273,10 @@
         <v>3.65</v>
       </c>
       <c r="Q230" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R230" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S230" t="n">
         <v>1.35</v>
@@ -42291,22 +42291,22 @@
         <v>2.15</v>
       </c>
       <c r="W230" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X230" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y230" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z230" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA230" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB230" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC230" t="n">
         <v>8</v>
@@ -42330,34 +42330,34 @@
         <v>10.75</v>
       </c>
       <c r="AJ230" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK230" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL230" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM230" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN230" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO230" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AP230" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ230" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AR230" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS230" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT230" t="n">
         <v>2.95</v>
@@ -42372,19 +42372,19 @@
         <v>51</v>
       </c>
       <c r="AX230" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AY230" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AZ230" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA230" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BB230" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BC230" t="n">
         <v>200</v>
@@ -42425,22 +42425,22 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I231" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="J231" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="K231" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="L231" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="M231" t="n">
         <v>1.02</v>
@@ -42449,16 +42449,16 @@
         <v>10</v>
       </c>
       <c r="O231" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P231" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q231" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R231" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="S231" t="n">
         <v>1.24</v>
@@ -42467,106 +42467,106 @@
         <v>3.65</v>
       </c>
       <c r="U231" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V231" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="W231" t="n">
         <v>9.75</v>
       </c>
       <c r="X231" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="Y231" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z231" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AA231" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB231" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC231" t="n">
         <v>10</v>
       </c>
       <c r="AD231" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE231" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AF231" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG231" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH231" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI231" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ231" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK231" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AL231" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM231" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN231" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO231" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="AP231" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ231" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AR231" t="n">
         <v>32</v>
       </c>
       <c r="AS231" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT231" t="n">
         <v>3.65</v>
       </c>
       <c r="AU231" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AV231" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW231" t="n">
         <v>51</v>
       </c>
       <c r="AX231" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AY231" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AZ231" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA231" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BB231" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC231" t="n">
         <v>501</v>
@@ -42613,16 +42613,16 @@
         <v>3.7</v>
       </c>
       <c r="I232" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J232" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K232" t="n">
         <v>2.18</v>
       </c>
       <c r="L232" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M232" t="n">
         <v>1.07</v>
@@ -42643,10 +42643,10 @@
         <v>1.75</v>
       </c>
       <c r="S232" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T232" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="U232" t="n">
         <v>2.1</v>
@@ -42655,7 +42655,7 @@
         <v>1.65</v>
       </c>
       <c r="W232" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X232" t="n">
         <v>6.5</v>
@@ -42694,7 +42694,7 @@
         <v>35</v>
       </c>
       <c r="AJ232" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK232" t="n">
         <v>120</v>
@@ -42703,19 +42703,19 @@
         <v>70</v>
       </c>
       <c r="AM232" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN232" t="n">
         <v>3.25</v>
       </c>
       <c r="AO232" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AP232" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ232" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR232" t="n">
         <v>60</v>
@@ -42724,7 +42724,7 @@
         <v>300</v>
       </c>
       <c r="AT232" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU232" t="n">
         <v>8.25</v>
@@ -42736,10 +42736,10 @@
         <v>51</v>
       </c>
       <c r="AX232" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AY232" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ232" t="n">
         <v>40</v>
@@ -42792,19 +42792,19 @@
         <v>1.5</v>
       </c>
       <c r="H233" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I233" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J233" t="n">
         <v>1.98</v>
       </c>
       <c r="K233" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L233" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M233" t="n">
         <v>1.03</v>
@@ -42825,16 +42825,16 @@
         <v>2.3</v>
       </c>
       <c r="S233" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T233" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="U233" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V233" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W233" t="n">
         <v>8.75</v>
@@ -42846,10 +42846,10 @@
         <v>8.25</v>
       </c>
       <c r="Z233" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA233" t="n">
         <v>11.25</v>
-      </c>
-      <c r="AA233" t="n">
-        <v>11</v>
       </c>
       <c r="AB233" t="n">
         <v>21</v>
@@ -42864,10 +42864,10 @@
         <v>15.5</v>
       </c>
       <c r="AF233" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG233" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH233" t="n">
         <v>18</v>
@@ -42876,13 +42876,13 @@
         <v>35</v>
       </c>
       <c r="AJ233" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK233" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL233" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM233" t="n">
         <v>45</v>
@@ -42894,10 +42894,10 @@
         <v>6.9</v>
       </c>
       <c r="AP233" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ233" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AR233" t="n">
         <v>40</v>
@@ -42906,10 +42906,10 @@
         <v>150</v>
       </c>
       <c r="AT233" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU233" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV233" t="n">
         <v>55</v>
@@ -42918,19 +42918,19 @@
         <v>51</v>
       </c>
       <c r="AX233" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AY233" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ233" t="n">
         <v>28</v>
-      </c>
-      <c r="AZ233" t="n">
-        <v>29</v>
       </c>
       <c r="BA233" t="n">
         <v>150</v>
       </c>
       <c r="BB233" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC233" t="n">
         <v>300</v>
@@ -43189,10 +43189,10 @@
         <v>2.15</v>
       </c>
       <c r="S235" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T235" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="U235" t="n">
         <v>1.7</v>
@@ -43234,16 +43234,16 @@
         <v>350</v>
       </c>
       <c r="AH235" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI235" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ235" t="n">
         <v>15.5</v>
       </c>
       <c r="AK235" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL235" t="n">
         <v>40</v>
@@ -43261,7 +43261,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ235" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR235" t="n">
         <v>50</v>
@@ -43270,7 +43270,7 @@
         <v>175</v>
       </c>
       <c r="AT235" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU235" t="n">
         <v>7.2</v>
@@ -43282,7 +43282,7 @@
         <v>51</v>
       </c>
       <c r="AX235" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AY235" t="n">
         <v>26</v>
@@ -43335,28 +43335,28 @@
         </is>
       </c>
       <c r="G236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I236" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J236" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L236" t="n">
         <v>3</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I236" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="J236" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K236" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L236" t="n">
-        <v>2.95</v>
       </c>
       <c r="M236" t="n">
         <v>1.1</v>
       </c>
       <c r="N236" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O236" t="n">
         <v>1.42</v>
@@ -43377,46 +43377,46 @@
         <v>2.52</v>
       </c>
       <c r="U236" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="V236" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W236" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="X236" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y236" t="n">
         <v>11.25</v>
       </c>
       <c r="Z236" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA236" t="n">
         <v>32</v>
       </c>
       <c r="AB236" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC236" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AD236" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AE236" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF236" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG236" t="n">
         <v>700</v>
       </c>
       <c r="AH236" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AI236" t="n">
         <v>11.25</v>
@@ -43434,19 +43434,19 @@
         <v>32</v>
       </c>
       <c r="AN236" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO236" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP236" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ236" t="n">
         <v>90</v>
       </c>
       <c r="AR236" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS236" t="n">
         <v>350</v>
@@ -43455,10 +43455,10 @@
         <v>2.52</v>
       </c>
       <c r="AU236" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV236" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW236" t="n">
         <v>51</v>
@@ -43467,7 +43467,7 @@
         <v>4.25</v>
       </c>
       <c r="AY236" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AZ236" t="n">
         <v>21</v>
@@ -43517,46 +43517,46 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H237" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="I237" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="J237" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K237" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L237" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="M237" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N237" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O237" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P237" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="Q237" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R237" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S237" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T237" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="U237" t="n">
         <v>2.05</v>
@@ -43565,28 +43565,28 @@
         <v>1.7</v>
       </c>
       <c r="W237" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X237" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y237" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z237" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA237" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB237" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC237" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AD237" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE237" t="n">
         <v>17.5</v>
@@ -43598,67 +43598,67 @@
         <v>700</v>
       </c>
       <c r="AH237" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AI237" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ237" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK237" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL237" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM237" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN237" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="AO237" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP237" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ237" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR237" t="n">
         <v>120</v>
       </c>
       <c r="AS237" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT237" t="n">
         <v>2.3</v>
       </c>
       <c r="AU237" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV237" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW237" t="n">
         <v>51</v>
       </c>
       <c r="AX237" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AY237" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ237" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA237" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB237" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC237" t="n">
         <v>500</v>
@@ -43699,40 +43699,40 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H238" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I238" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J238" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="K238" t="n">
         <v>2.15</v>
       </c>
       <c r="L238" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M238" t="n">
         <v>1.06</v>
       </c>
       <c r="N238" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O238" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P238" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q238" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R238" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S238" t="n">
         <v>1.4</v>
@@ -43747,55 +43747,55 @@
         <v>1.98</v>
       </c>
       <c r="W238" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X238" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y238" t="n">
         <v>8.25</v>
       </c>
       <c r="Z238" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA238" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB238" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC238" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD238" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE238" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF238" t="n">
         <v>65</v>
       </c>
       <c r="AG238" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH238" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI238" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ238" t="n">
         <v>12.5</v>
       </c>
       <c r="AK238" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL238" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM238" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN238" t="n">
         <v>3.8</v>
@@ -43810,7 +43810,7 @@
         <v>35</v>
       </c>
       <c r="AR238" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS238" t="n">
         <v>250</v>
@@ -43819,7 +43819,7 @@
         <v>2.75</v>
       </c>
       <c r="AU238" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV238" t="n">
         <v>65</v>
@@ -43828,7 +43828,7 @@
         <v>51</v>
       </c>
       <c r="AX238" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AY238" t="n">
         <v>21</v>
